--- a/biology/Zoologie/Cambarus_pyronotus/Cambarus_pyronotus.xlsx
+++ b/biology/Zoologie/Cambarus_pyronotus/Cambarus_pyronotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambarus pyronotus est une espèce d'écrevisses de la famille des Cambaridae endémique des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cambarus pyronotus a été décrite en 1978 par Raymond William Bouchard (d) sous le protonyme de Cambarus (Depressicambarus) pyronotus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cambarus pyronotus a été décrite en 1978 par Raymond William Bouchard (d) sous le protonyme de Cambarus (Depressicambarus) pyronotus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plus grand spécimen étudié, une femelle, présentait une carapace mesurant 33 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus grand spécimen étudié, une femelle, présentait une carapace mesurant 33 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du grec ancien πῦρ, pûr, « feu », et νῶτος, nôtos, « dos », lui a été donné en référence à la couleur rouge orangé qu'arbore cette espèce dans sa localité-type[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du grec ancien πῦρ, pûr, « feu », et νῶτος, nôtos, « dos », lui a été donné en référence à la couleur rouge orangé qu'arbore cette espèce dans sa localité-type.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Raymond William Bouchard, « Taxonomy, Ecology and Phylogeny of the Subgenus Depressicambarus, with the Description of a New Species from Florida and Redescriptions of Cambarus graysoni, Cambarus latimanus and Cambarus striatus (Decapoda: Cambaridae) », Bulletin of the Alabama Museum of Natural History, Alabama Museum of Natural History (d), vol. 3,‎ 1978, p. 27-60 (ISSN 0196-1039, lire en ligne)</t>
         </is>
